--- a/build2.7_260206/results/標準/2.7b_data2022_import4_wval100_unlim_fbal_cfim10_results.xlsx
+++ b/build2.7_260206/results/標準/2.7b_data2022_import4_wval100_unlim_fbal_cfim10_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikiyo\OneDrive\MAFF_2025\workspace simul\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7CDFDB6-653E-4FFB-9C8D-03E39CAC8E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA83D127-3DAA-452D-AA97-4AD10B3CD841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2880" windowWidth="19200" windowHeight="11170" firstSheet="2" activeTab="7" xr2:uid="{75EA7EE5-9CB4-4835-BD19-BA22C4705A60}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="7" xr2:uid="{0486E0DC-E64A-4719-ABB8-32FAABCDA7B7}"/>
   </bookViews>
   <sheets>
     <sheet name="pcroprep" sheetId="1" r:id="rId1"/>
@@ -701,7 +701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C677AACE-C971-4946-87CB-977D320BADFE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23DA15FB-8A34-4478-A83A-E834E72A8B3B}">
   <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1815,7 +1815,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D23100DD-F506-4B24-8888-118A11DC4D6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE2571FF-E7B9-41B8-9AD6-4B652780516A}">
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2269,7 +2269,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF2884F1-27A5-49E3-8525-CE64F28158E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F791A62-667D-4C91-93FF-CDA710EDD430}">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2696,7 +2696,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E59525A0-121F-4C69-9592-A1698541B072}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{250E4B16-6196-4F21-B514-923943E9A5CA}">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3003,7 +3003,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{646F2C5B-EA70-481F-8D1E-A0A2102FDD63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7131DFD-348A-43E7-ADA7-E62D5AB02D5A}">
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3597,7 +3597,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAE1B6F9-57ED-43C0-8E8D-E739D87CD610}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBAAE274-FC40-419B-9B82-F0B0E5D9BB85}">
   <dimension ref="A1:Z56"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5563,7 +5563,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666756EF-FEF7-46E2-994C-24E1E27B8157}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B672889-1CF8-4FAB-9EFA-B63B82733F97}">
   <dimension ref="A1:AF5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5872,7 +5872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D66DECC-118A-4030-8105-08E64627736A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48EC3AD1-4D45-4663-B95D-8AACECF5907B}">
   <dimension ref="A1:Z13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
